--- a/data/trans_dic/P44-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44-Provincia-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_dic/P44-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,41%</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>15,66; 32,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>48,14; 64,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>9,85; 24,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>22,89; 33,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>13,77; 24,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>36,37; 46,59</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,67%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>8,96; 21,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>2,69; 9,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>25,85; 38,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>5,99; 14,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,99; 5,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>13,36; 20,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>8,26; 15,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>2,39; 6,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>20,17; 27,83</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,81%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>3,71; 15,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>9,86; 21,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>30,2; 42,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>4,78; 15,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>7,59; 20,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>28,41; 39,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>5,47; 13,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>10,38; 18,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>30,98; 39,6</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,09%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>4,46; 12,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>11,33; 23,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>25,38; 37,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>6,67; 14,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>6,4; 17,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>26,28; 35,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>6,7; 12,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>10,38; 17,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>27,31; 35,16</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,95%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>3,89; 18,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>1,1; 8,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>11,48; 23,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>3,55; 14,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>0,94; 8,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>9,9; 18,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,24</t>
+          <t>3,89; 12,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>1,5; 6,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>11,5; 18,57</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,56%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>4,75; 16,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>4,87; 17,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>23,46; 35,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>2,32; 9,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>3,18; 12,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>18,87; 29,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>4,34; 10,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>4,62; 11,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>22,79; 31,0</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,57%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,57%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,26%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>4,37; 12,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>11,67; 21,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>32,17; 42,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>4,85; 11,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>6,52; 13,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>14,07; 39,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>5,38; 10,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>9,89; 16,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>19,37; 39,04</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,99%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>7,24; 15,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>5,3; 12,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>39,66; 67,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>2,59; 7,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>2,05; 6,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>32,8; 40,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,24; 10,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>4,06; 7,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>37,97; 55,74</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,01%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>7,78; 11,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>10,03; 13,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>35,39; 46,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>6,15; 8,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>6,16; 8,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>22,48; 30,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>7,31; 9,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>8,46; 10,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>29,59; 35,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P44-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44-Provincia-trans_dic.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>56,49%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>41,41%</t>
+          <t>42,02%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,67; 16,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,14; 64,12</t>
+          <t>48,2; 64,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,6; 19,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,89; 33,27</t>
+          <t>22,96; 33,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,91; 14,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,37; 46,59</t>
+          <t>36,97; 47,31</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>23,82%</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,85; 38,84</t>
+          <t>25,96; 39,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 20,79</t>
+          <t>13,4; 20,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,17; 27,83</t>
+          <t>20,21; 27,92</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>36,03%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>34,83%</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,2; 42,83</t>
+          <t>30,27; 42,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,41; 39,63</t>
+          <t>28,34; 39,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,98; 39,6</t>
+          <t>30,97; 39,67</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>31,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 12,75</t>
+          <t>3,94; 14,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,38; 37,87</t>
+          <t>25,25; 37,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,67; 14,13</t>
+          <t>5,14; 14,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,12 +1040,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,28; 35,94</t>
+          <t>26,33; 35,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 12,15</t>
+          <t>5,44; 12,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,31; 35,16</t>
+          <t>27,37; 35,15</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>14,91%</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,48; 23,77</t>
+          <t>11,39; 23,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,9; 18,29</t>
+          <t>9,95; 18,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,5; 18,57</t>
+          <t>11,48; 18,57</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>29,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>26,58%</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,46; 35,74</t>
+          <t>23,44; 35,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,87; 29,38</t>
+          <t>18,79; 29,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,79; 31,0</t>
+          <t>22,72; 31,01</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>36,95%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>27,95%</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>32,17; 42,86</t>
+          <t>31,14; 42,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,07; 39,49</t>
+          <t>8,5; 39,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,37; 39,04</t>
+          <t>13,13; 38,64</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>48,98%</t>
+          <t>67,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>37,06%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>55,77%</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>39,66; 67,67</t>
+          <t>39,87; 89,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,8; 40,75</t>
+          <t>33,06; 40,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>37,97; 55,74</t>
+          <t>38,23; 80,65</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>45,64%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>35,81%</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>35,39; 46,4</t>
+          <t>35,72; 67,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,48; 30,71</t>
+          <t>17,15; 30,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>29,59; 35,9</t>
+          <t>29,29; 48,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P44-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 16,32</t>
+          <t>3,38; 15,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,66; 32,26</t>
+          <t>16,03; 33,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,2; 64,32</t>
+          <t>49,07; 64,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 19,24</t>
+          <t>5,03; 18,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,85; 24,7</t>
+          <t>9,16; 23,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,96; 33,33</t>
+          <t>22,26; 33,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,91; 14,79</t>
+          <t>5,75; 15,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,77; 24,78</t>
+          <t>14,51; 25,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,97; 47,31</t>
+          <t>36,83; 46,66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,96; 21,37</t>
+          <t>8,87; 21,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 9,14</t>
+          <t>2,84; 9,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,96; 39,08</t>
+          <t>25,92; 39,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,99; 14,46</t>
+          <t>5,57; 14,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,47</t>
+          <t>1,27; 5,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,4; 20,82</t>
+          <t>13,53; 21,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,26; 15,54</t>
+          <t>8,51; 15,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,32</t>
+          <t>2,41; 6,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,21; 27,92</t>
+          <t>20,03; 27,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 15,55</t>
+          <t>4,48; 15,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,86; 21,48</t>
+          <t>10,07; 22,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,27; 42,85</t>
+          <t>30,12; 42,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 15,0</t>
+          <t>4,79; 14,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 20,43</t>
+          <t>7,0; 18,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,34; 39,6</t>
+          <t>28,41; 38,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 13,08</t>
+          <t>5,71; 12,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,38; 18,97</t>
+          <t>9,91; 18,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,97; 39,67</t>
+          <t>30,85; 39,17</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 14,31</t>
+          <t>3,82; 15,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 23,23</t>
+          <t>11,51; 22,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,25; 37,89</t>
+          <t>25,28; 37,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 14,66</t>
+          <t>5,08; 14,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,4; 17,37</t>
+          <t>6,78; 16,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,33; 35,87</t>
+          <t>26,36; 35,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 12,66</t>
+          <t>5,43; 12,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,38; 17,94</t>
+          <t>10,06; 17,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,37; 35,15</t>
+          <t>27,09; 34,95</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 18,13</t>
+          <t>3,63; 16,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 8,14</t>
+          <t>1,11; 9,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,39; 23,59</t>
+          <t>11,68; 23,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 14,59</t>
+          <t>3,56; 14,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 8,69</t>
+          <t>0,98; 8,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,95; 18,33</t>
+          <t>9,87; 17,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 12,65</t>
+          <t>3,88; 12,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 6,98</t>
+          <t>1,48; 7,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,48; 18,57</t>
+          <t>11,58; 18,46</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,75; 16,68</t>
+          <t>4,8; 16,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,87; 17,13</t>
+          <t>4,6; 15,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,44; 35,71</t>
+          <t>23,43; 35,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,32; 9,87</t>
+          <t>2,33; 9,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,18; 12,27</t>
+          <t>2,99; 12,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,79; 29,31</t>
+          <t>19,07; 28,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,34; 10,97</t>
+          <t>4,07; 10,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,62; 11,43</t>
+          <t>4,65; 11,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,72; 31,01</t>
+          <t>22,9; 30,88</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,37; 12,51</t>
+          <t>4,33; 12,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,67; 21,29</t>
+          <t>11,7; 20,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,14; 42,06</t>
+          <t>31,17; 42,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,85; 11,81</t>
+          <t>4,98; 12,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,52; 13,99</t>
+          <t>6,97; 14,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,5; 39,39</t>
+          <t>7,45; 39,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,38; 10,71</t>
+          <t>5,36; 10,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,89; 16,1</t>
+          <t>10,3; 16,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,13; 38,64</t>
+          <t>12,25; 38,65</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,24; 15,9</t>
+          <t>7,34; 15,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,3; 12,21</t>
+          <t>5,53; 12,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>39,87; 89,59</t>
+          <t>40,58; 90,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,59; 7,27</t>
+          <t>2,33; 7,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,05; 6,27</t>
+          <t>2,1; 6,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,06; 40,82</t>
+          <t>33,22; 41,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,24; 10,02</t>
+          <t>5,29; 9,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,06; 7,78</t>
+          <t>4,08; 7,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>38,23; 80,65</t>
+          <t>38,5; 78,11</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,78; 11,47</t>
+          <t>7,77; 11,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,03; 13,54</t>
+          <t>10,13; 13,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>35,72; 67,92</t>
+          <t>35,86; 66,53</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,98</t>
+          <t>6,1; 8,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,16; 8,99</t>
+          <t>6,16; 8,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,15; 30,47</t>
+          <t>17,47; 30,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,31; 9,67</t>
+          <t>7,3; 9,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,46; 10,75</t>
+          <t>8,37; 10,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>29,29; 48,7</t>
+          <t>29,41; 49,26</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6955</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24163</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>73367</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11070</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16912</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35679</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18025</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>41075</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>109046</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2892; 13671</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16903; 35193</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>63576; 83152</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5192; 18767</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9881; 25708</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>28922; 42999</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10858; 28584</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30960; 53570</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>95570; 121098</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24113</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11204</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>63551</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20413</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6731</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>39517</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>44526</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17936</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>103069</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15337; 37250</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5952; 20648</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>51350; 77518</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11901; 31037</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3069; 13955</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>31737; 50300</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>32879; 60509</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10889; 29577</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>86677; 120968</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9219</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21682</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>56800</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13312</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19952</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>55754</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>22531</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>41635</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>112555</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5052; 17598</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14375; 31614</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>47480; 67128</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7139; 21392</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11131; 30081</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>47017; 64487</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14950; 33319</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29887; 57212</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>99685; 126561</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10919</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26838</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>52870</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>14699</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20421</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>59177</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25618</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>47259</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>112046</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5285; 20898</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18854; 37245</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>42753; 63972</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8102; 23238</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12622; 31479</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>50397; 68585</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>16168; 37121</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>35201; 62102</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>97615; 125930</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6298</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12873</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6566</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3989</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13937</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12864</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6961</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>26810</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2802; 12567</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>966; 7950</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8939; 18350</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3185; 13305</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1049; 9128</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10195; 18160</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6466; 21431</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2860; 13678</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>20826; 33192</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10271</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10387</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>38935</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6292</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8605</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>30552</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>16563</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>18991</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>69487</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5174; 17391</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5262; 18000</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>31139; 47582</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3028; 12920</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4045; 16657</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>24509; 37195</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>9673; 25611</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>11606; 29601</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>59858; 80722</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>17974</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>41217</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>108149</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>22665</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>29218</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>114700</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>40638</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>70435</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>222848</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>10316; 28705</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>30652; 53847</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>91225; 124201</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>14745; 36136</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>20127; 41843</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>37603; 201122</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>28634; 56482</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>56750; 91551</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>97693; 308181</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>28008</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>26406</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>373952</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>15045</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>13470</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>130107</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>43052</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>39876</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>504059</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>19167; 41550</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>17402; 38286</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>224581; 499781</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>7614; 23720</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>7778; 23415</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>116400; 144381</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>31070; 57987</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>27926; 53331</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>347985; 706041</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1615</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>113757</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>164868</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>780497</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>110061</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>119300</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>479423</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>223818</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>284168</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1259920</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>92764; 138282</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>141704; 191956</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>613221; 1137669</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>89516; 131398</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>98308; 141896</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>315898; 550702</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>194216; 254540</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>250835; 316911</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1034627; 1733043</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44-Provincia-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1670,7 +1670,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
